--- a/dulieutest.xlsx
+++ b/dulieutest.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
-  <si>
-    <t>MS1</t>
-  </si>
-  <si>
-    <t>Lao hac</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>Van Hoc</t>
   </si>
@@ -33,60 +27,24 @@
     <t>Nam Cao</t>
   </si>
   <si>
-    <t>Ten sach khong duov de tronh</t>
-  </si>
-  <si>
     <t>So do</t>
   </si>
   <si>
-    <t>so luong khong duoc de trong</t>
-  </si>
-  <si>
     <t>Truyen Kieu</t>
   </si>
   <si>
-    <t>The loai g khong duoc de trong</t>
-  </si>
-  <si>
     <t>tuoi tho du doi</t>
   </si>
   <si>
-    <t>tac gia khong duoc de trong</t>
-  </si>
-  <si>
-    <t>Nhung nguoi khon kho</t>
-  </si>
-  <si>
-    <t>Tieu thuyet</t>
-  </si>
-  <si>
     <t>Victor Hugo</t>
   </si>
   <si>
-    <t>so luong qua 5 ki tu so</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaa..aa</t>
-  </si>
-  <si>
-    <t>Tho</t>
-  </si>
-  <si>
     <t>Nguyen Trai</t>
   </si>
   <si>
-    <t>Ten qua 50 ki tu</t>
-  </si>
-  <si>
     <t>Tieng goi noi hoang da</t>
   </si>
   <si>
-    <t>aaaaaaa..aa</t>
-  </si>
-  <si>
-    <t>tac gia qua 50 ki tu</t>
-  </si>
-  <si>
     <t>Khong gia dinh</t>
   </si>
   <si>
@@ -96,32 +54,91 @@
     <t>Khong Nho</t>
   </si>
   <si>
-    <t>Khong dung dinh dang so luong</t>
-  </si>
-  <si>
-    <t>Thanh cong</t>
-  </si>
-  <si>
     <t>Vu Trong Phung</t>
   </si>
   <si>
     <t>Nguyen Du</t>
+  </si>
+  <si>
+    <t>TCs</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Thể loại</t>
+  </si>
+  <si>
+    <t>Tác giả</t>
+  </si>
+  <si>
+    <t>Unsuccessfull</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Successfull</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Buoc Duong Cung</t>
+  </si>
+  <si>
+    <t>Ngo Tat To</t>
+  </si>
+  <si>
+    <t>Hai Dua Tre</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,11 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,202 +478,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K11"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>123456</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dulieutest.xlsx
+++ b/dulieutest.xlsx
@@ -19,124 +19,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+  <si>
+    <t>Nam Cao</t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>So do</t>
+  </si>
+  <si>
+    <t>Truyen Kieu</t>
+  </si>
   <si>
     <t>Van Hoc</t>
   </si>
   <si>
-    <t>Nam Cao</t>
-  </si>
-  <si>
-    <t>So do</t>
-  </si>
-  <si>
-    <t>Truyen Kieu</t>
+    <t>Nguyen Trai</t>
+  </si>
+  <si>
+    <t>Khong Nho</t>
+  </si>
+  <si>
+    <t>Khong gia dinh</t>
+  </si>
+  <si>
+    <t>Tieng goi noi hoang da</t>
   </si>
   <si>
     <t>tuoi tho du doi</t>
   </si>
   <si>
-    <t>Victor Hugo</t>
-  </si>
-  <si>
-    <t>Nguyen Trai</t>
-  </si>
-  <si>
-    <t>Tieng goi noi hoang da</t>
-  </si>
-  <si>
-    <t>Khong gia dinh</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>Khong Nho</t>
+    <t>TCs</t>
+  </si>
+  <si>
+    <t>Tên sách</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Thể loại</t>
+  </si>
+  <si>
+    <t>Tác giả</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>Buoc Duong Cung</t>
+  </si>
+  <si>
+    <t>Ngo Tat To</t>
+  </si>
+  <si>
+    <t>Unsuccessfull</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
   </si>
   <si>
     <t>Vu Trong Phung</t>
   </si>
   <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Nguyen Du</t>
   </si>
   <si>
-    <t>TCs</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
     <t>TC5</t>
   </si>
   <si>
     <t>TC6</t>
   </si>
   <si>
+    <t>Hai Dua Tre</t>
+  </si>
+  <si>
     <t>TC7</t>
   </si>
   <si>
+    <t>aaaaaaaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
     <t>TC8</t>
   </si>
   <si>
+    <t>aaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
     <t>TC9</t>
   </si>
   <si>
-    <t>Tên sách</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
-  </si>
-  <si>
-    <t>Thể loại</t>
-  </si>
-  <si>
-    <t>Tác giả</t>
-  </si>
-  <si>
-    <t>Unsuccessfull</t>
-  </si>
-  <si>
-    <t>Output</t>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Khong@ gia dinh</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>M@ vel</t>
+  </si>
+  <si>
+    <t>Ki nguyen</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Successfull</t>
   </si>
   <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>aaaaaaaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>aaaaaaa..aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Buoc Duong Cung</t>
-  </si>
-  <si>
-    <t>Ngo Tat To</t>
-  </si>
-  <si>
-    <t>Hai Dua Tre</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +166,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="18"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -189,17 +223,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,247 +528,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>36</v>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L9:M9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>